--- a/crRNA_search_results_2.xlsx
+++ b/crRNA_search_results_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,18 +518,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CCGCGCGCTGGATGAGCGGATTCAGCAG</t>
+          <t>CGCGCTGGATGAGCGGATTCAGCAGGGG</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.941672563552856</v>
+        <v>1.855608940124512</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.937390565872192</v>
+        <v>-1.864644050598145</v>
       </c>
     </row>
     <row r="5">
@@ -542,18 +542,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CCCGCGCGCTGGATGAGCGGATTCAGCA</t>
+          <t>GGATGAGCGGATTCAGCAGGGGGCGCTG</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.883209466934204</v>
+        <v>1.732449531555176</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.910744428634644</v>
+        <v>-1.43283224105835</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INH_inhA0_WT</t>
+          <t>INH_inhA7</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CGCGCTGGATGAGCGGATTCAGCAGGGG</t>
+          <t>TGGATGAGCGGATTCAGCAGGGGGCGCT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.85560941696167</v>
+        <v>2.932106971740723</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.864644050598145</v>
+        <v>-1.196045875549316</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INH_inhA0_WT</t>
+          <t>INH_inhA7</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -594,14 +594,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GGATGAGCGGATTCAGCAGGGGGCGCTG</t>
+          <t>GGATGAGCGGATTCAGCAGGGGGCGCTA</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.732449054718018</v>
+        <v>2.543977022171021</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.43283224105835</v>
+        <v>-1.465204000473022</v>
       </c>
     </row>
     <row r="8">
@@ -610,22 +610,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INH_inhA0_WT</t>
+          <t>INH_inhA7</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CGCTGGATGAGCGGATTCAGCAGGGGGC</t>
+          <t>CGCGCGCTGGATGAGCGGATTCAGCAGG</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.650134325027466</v>
+        <v>2.159960269927979</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.813622713088989</v>
+        <v>-2.191612720489502</v>
       </c>
     </row>
     <row r="9">
@@ -634,310 +634,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INH_inhA0_WT</t>
+          <t>INH_inhA7</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CGGATTCAGCAGGGGGCGCTGCAATTTA</t>
+          <t>GCGCGCTGGATGAGCGGATTCAGCAGGG</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.560930728912354</v>
+        <v>2.009116411209106</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8736691474914551</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>INH_inhA0_WT</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>828</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GGATTCAGCAGGGGGCGCTGCAATTTAT</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1.526182651519775</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.9805583953857422</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>INH_inhA0_WT</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>815</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GCGCTGGATGAGCGGATTCAGCAGGGGG</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1.338618278503418</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-1.436570644378662</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>INH_inhA7</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>819</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TGGATGAGCGGATTCAGCAGGGGGCGCT</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>2.932106971740723</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-1.196045875549316</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>INH_inhA7</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>820</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GGATGAGCGGATTCAGCAGGGGGCGCTA</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>2.543977022171021</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-1.465204000473022</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>INH_inhA7</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>812</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CGCGCGCTGGATGAGCGGATTCAGCAGG</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2.159960269927979</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-2.191612720489502</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>INH_inhA7</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>813</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GCGCGCTGGATGAGCGGATTCAGCAGGG</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>2.009116411209106</v>
-      </c>
-      <c r="F15" t="n">
         <v>-2.001514196395874</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>INH_inhA7</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>811</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>CCGCGCGCTGGATGAGCGGATTCAGCAG</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>1.93524956703186</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.939531564712524</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>INH_inhA7</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>810</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>CCCGCGCGCTGGATGAGCGGATTCAGCA</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1.924511909484863</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-1.896976947784424</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INH_inhA7</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>828</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>GGATTCAGCAGGGGGCGCTACAATTTAT</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>1.912244081497192</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.8769886493682861</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INH_inhA7</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>816</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CGCTGGATGAGCGGATTCAGCAGGGGGC</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>1.895366907119751</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-1.731878519058228</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INH_inhA7</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>814</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>CGCGCTGGATGAGCGGATTCAGCAGGGG</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>1.869161367416382</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-1.860126733779907</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INH_inhA7</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>821</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GATGAGCGGATTCAGCAGGGGGCGCTAC</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>1.521920204162598</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-1.0572829246521</v>
       </c>
     </row>
   </sheetData>
